--- a/src/assets/data/2_Gestion de la Calidad/Caracterizacion/GC-FOR-003 Listado maestro de documentos Gestión de la Calidad.xlsx
+++ b/src/assets/data/2_Gestion de la Calidad/Caracterizacion/GC-FOR-003 Listado maestro de documentos Gestión de la Calidad.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>GESTIÓN DE LA CALIDAD</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>GC-FOR-018</t>
+  </si>
+  <si>
+    <t>Acta de revisión por la dirección</t>
+  </si>
+  <si>
+    <t>GC-FOR-019</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
     <xdr:ext cx="1076325" cy="866775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -599,7 +605,7 @@
     <xdr:ext cx="866775" cy="866775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1714,11 +1720,19 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>5</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -25962,13 +25976,14 @@
       <c r="Z896" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
